--- a/data/matrix_codebook.xlsx
+++ b/data/matrix_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/LivingMetaAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{454138B0-1659-4BFD-AA6A-87999DFFBEBA}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90E2E40-88A2-4D36-B237-154FF19BE3D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28965" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="321">
   <si>
     <t>BESSI</t>
   </si>
@@ -71,12 +71,6 @@
     <t>HEXACO</t>
   </si>
   <si>
-    <t>honestyhumility</t>
-  </si>
-  <si>
-    <t>emotionality</t>
-  </si>
-  <si>
     <t>HX_FACETS</t>
   </si>
   <si>
@@ -957,6 +951,57 @@
   </si>
   <si>
     <t>broad</t>
+  </si>
+  <si>
+    <t>SEB_SKILLS</t>
+  </si>
+  <si>
+    <t>hexaco_honestyhumility</t>
+  </si>
+  <si>
+    <t>hexaco_emotionality</t>
+  </si>
+  <si>
+    <t>hexaco_extraversion</t>
+  </si>
+  <si>
+    <t>hexaco_agreeableness</t>
+  </si>
+  <si>
+    <t>hexaco_conscientiousness</t>
+  </si>
+  <si>
+    <t>hexaco_openness</t>
+  </si>
+  <si>
+    <t>academicselfefficacy</t>
+  </si>
+  <si>
+    <t>Academic self-efficacy</t>
+  </si>
+  <si>
+    <t>JOB_TRANSITION</t>
+  </si>
+  <si>
+    <t>careeradaptability</t>
+  </si>
+  <si>
+    <t>Career adaptability</t>
+  </si>
+  <si>
+    <t>sustainabilitycompetence</t>
+  </si>
+  <si>
+    <t>ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>Action competence for sustainability</t>
+  </si>
+  <si>
+    <t>natureconnectedness</t>
+  </si>
+  <si>
+    <t>Connectedness to nature</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}">
-  <dimension ref="A1:AO147"/>
+  <dimension ref="A1:AO151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,24 +1343,24 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1324,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1366,7 +1411,7 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1375,12 +1420,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -1389,500 +1434,500 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1923,274 +1968,271 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
         <v>74</v>
       </c>
-      <c r="C47" t="s">
-        <v>76</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
         <v>93</v>
       </c>
-      <c r="C52" t="s">
-        <v>95</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
         <v>164</v>
       </c>
-      <c r="C57" t="s">
-        <v>166</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2198,7 +2240,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>4</v>
@@ -2207,12 +2249,12 @@
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
@@ -2221,12 +2263,12 @@
         <v>6</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>4</v>
@@ -2235,553 +2277,553 @@
         <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>308</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
         <v>147</v>
       </c>
-      <c r="C90" t="s">
-        <v>149</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" t="s">
         <v>158</v>
       </c>
-      <c r="C100" t="s">
-        <v>160</v>
-      </c>
       <c r="D100" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,530 +2831,586 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E105" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="2"/>
+      <c r="A109" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>311</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>87</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" t="s">
-        <v>54</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C114" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="2"/>
+      <c r="A115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>88</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C116" t="s">
-        <v>56</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E116" t="s">
-        <v>57</v>
-      </c>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C117" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="E117" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="2"/>
+      <c r="A118" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" t="s">
+        <v>79</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>89</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C119" t="s">
-        <v>60</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C120" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" t="s">
         <v>59</v>
       </c>
-      <c r="C121" t="s">
-        <v>62</v>
-      </c>
       <c r="D121" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C122" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="2"/>
+      <c r="A123" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" t="s">
+        <v>61</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>109</v>
+        <v>314</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>90</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" t="s">
-        <v>110</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C131" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C132" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" t="s">
         <v>113</v>
       </c>
-      <c r="C133" t="s">
-        <v>117</v>
-      </c>
       <c r="D133" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C134" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C135" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="2"/>
+      <c r="A136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C136" t="s">
+        <v>116</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C137" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>102</v>
+        <v>317</v>
       </c>
       <c r="C138" t="s">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>102</v>
+        <v>317</v>
       </c>
       <c r="C139" t="s">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>91</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C140" t="s">
-        <v>106</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>299</v>
-      </c>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C141" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" t="s">
         <v>102</v>
       </c>
-      <c r="C142" t="s">
-        <v>108</v>
-      </c>
       <c r="D142" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="2"/>
+      <c r="A143" t="s">
+        <v>89</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143" t="s">
+        <v>103</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C144" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C145" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C146" t="s">
+        <v>106</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>90</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>90</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" t="s">
+        <v>65</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>118</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C151" t="s">
         <v>120</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C147" t="s">
-        <v>122</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>304</v>
+      <c r="D151" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/data/matrix_codebook.xlsx
+++ b/data/matrix_codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="479" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90E2E40-88A2-4D36-B237-154FF19BE3D1}"/>
+  <xr:revisionPtr revIDLastSave="491" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4132E03F-E9D0-4B7E-AF6D-BCD508AA7F63}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28965" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="14985" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="329">
   <si>
     <t>BESSI</t>
   </si>
@@ -1002,6 +1002,30 @@
   </si>
   <si>
     <t>Connectedness to nature</t>
+  </si>
+  <si>
+    <t>COGNITIVE_ABILITIES</t>
+  </si>
+  <si>
+    <t>INTELLIGENCE</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>intelligencecrystallized</t>
+  </si>
+  <si>
+    <t>intelligencefluid</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Crystallized intelligence</t>
+  </si>
+  <si>
+    <t>Fluid intelligence</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}">
-  <dimension ref="A1:AO151"/>
+  <dimension ref="A1:AO155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,6 +3437,48 @@
         <v>302</v>
       </c>
     </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>321</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C153" t="s">
+        <v>323</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>321</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C154" t="s">
+        <v>324</v>
+      </c>
+      <c r="D154" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>321</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C155" t="s">
+        <v>325</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AO1" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/matrix_codebook.xlsx
+++ b/data/matrix_codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="491" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4132E03F-E9D0-4B7E-AF6D-BCD508AA7F63}"/>
+  <xr:revisionPtr revIDLastSave="526" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{420E259E-56A7-4107-BB40-6D69329A9275}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="14985" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14985" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="345">
   <si>
     <t>BESSI</t>
   </si>
@@ -953,9 +953,6 @@
     <t>broad</t>
   </si>
   <si>
-    <t>SEB_SKILLS</t>
-  </si>
-  <si>
     <t>hexaco_honestyhumility</t>
   </si>
   <si>
@@ -1026,6 +1023,57 @@
   </si>
   <si>
     <t>Fluid intelligence</t>
+  </si>
+  <si>
+    <t>SKILLS_other</t>
+  </si>
+  <si>
+    <t>standardizedacademicachievement</t>
+  </si>
+  <si>
+    <t>Standardized academic achievement</t>
+  </si>
+  <si>
+    <t>educationalaspiration</t>
+  </si>
+  <si>
+    <t>Educational aspiration</t>
+  </si>
+  <si>
+    <t>the higher degree students want to reach</t>
+  </si>
+  <si>
+    <t>srlstrategies</t>
+  </si>
+  <si>
+    <t>SRL strategies</t>
+  </si>
+  <si>
+    <t>GROWTH MINDSET</t>
+  </si>
+  <si>
+    <t>growthmindset</t>
+  </si>
+  <si>
+    <t>Growth mindset</t>
+  </si>
+  <si>
+    <t>Mastery learning goals</t>
+  </si>
+  <si>
+    <t>masterygoals</t>
+  </si>
+  <si>
+    <t>positiveachievementemotions</t>
+  </si>
+  <si>
+    <t>negativeachievementemotions</t>
+  </si>
+  <si>
+    <t>Positive achievement emotions</t>
+  </si>
+  <si>
+    <t>Negative achievement emotions</t>
   </si>
 </sst>
 </file>
@@ -1353,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}">
-  <dimension ref="A1:AO155"/>
+  <dimension ref="A1:AO162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1432,7 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1435,7 +1483,7 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1449,7 +1497,7 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -1463,7 +1511,7 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -1477,7 +1525,7 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -1491,7 +1539,7 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>70</v>
@@ -1505,7 +1553,7 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>70</v>
@@ -1519,7 +1567,7 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>70</v>
@@ -1533,7 +1581,7 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>70</v>
@@ -1547,7 +1595,7 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>70</v>
@@ -1561,7 +1609,7 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>70</v>
@@ -1575,7 +1623,7 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>70</v>
@@ -1589,7 +1637,7 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>70</v>
@@ -1603,7 +1651,7 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>70</v>
@@ -1617,7 +1665,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>70</v>
@@ -1631,7 +1679,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>70</v>
@@ -1645,7 +1693,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>70</v>
@@ -1659,7 +1707,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>70</v>
@@ -1673,7 +1721,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>70</v>
@@ -1687,7 +1735,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>70</v>
@@ -1701,7 +1749,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>70</v>
@@ -1715,7 +1763,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>70</v>
@@ -1729,7 +1777,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>70</v>
@@ -1743,7 +1791,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>70</v>
@@ -1757,7 +1805,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>70</v>
@@ -1771,7 +1819,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>70</v>
@@ -1785,7 +1833,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
@@ -1799,7 +1847,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>70</v>
@@ -1813,7 +1861,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>70</v>
@@ -1827,7 +1875,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>70</v>
@@ -1841,7 +1889,7 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>70</v>
@@ -1855,7 +1903,7 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>70</v>
@@ -1869,7 +1917,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>70</v>
@@ -1883,7 +1931,7 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>70</v>
@@ -1897,7 +1945,7 @@
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>70</v>
@@ -1911,7 +1959,7 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>70</v>
@@ -1925,7 +1973,7 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>70</v>
@@ -1939,7 +1987,7 @@
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>132</v>
@@ -1992,7 +2040,7 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>132</v>
@@ -2009,7 +2057,7 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>132</v>
@@ -2026,7 +2074,7 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>132</v>
@@ -2043,7 +2091,7 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>132</v>
@@ -2065,7 +2113,7 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>72</v>
@@ -2079,7 +2127,7 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>72</v>
@@ -2093,7 +2141,7 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>72</v>
@@ -2107,7 +2155,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>72</v>
@@ -2121,7 +2169,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>72</v>
@@ -2135,7 +2183,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>91</v>
@@ -2149,7 +2197,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>91</v>
@@ -2163,7 +2211,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>91</v>
@@ -2177,7 +2225,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>91</v>
@@ -2191,7 +2239,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>91</v>
@@ -2205,7 +2253,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>162</v>
@@ -2219,7 +2267,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>162</v>
@@ -2233,7 +2281,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>162</v>
@@ -2247,7 +2295,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>162</v>
@@ -2556,7 +2604,7 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>246</v>
@@ -2570,7 +2618,7 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>247</v>
@@ -2584,7 +2632,7 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>248</v>
@@ -2598,7 +2646,7 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>249</v>
@@ -2612,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>250</v>
@@ -2626,7 +2674,7 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>251</v>
@@ -2875,13 +2923,13 @@
         <v>84</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2889,13 +2937,16 @@
         <v>84</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>269</v>
+        <v>332</v>
+      </c>
+      <c r="E107" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2906,10 +2957,10 @@
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2920,83 +2971,94 @@
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="2"/>
+      <c r="A110" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>122</v>
+        <v>340</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>66</v>
+        <v>341</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3004,106 +3066,106 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E117" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="2"/>
+      <c r="A119" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C120" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C121" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>87</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C122" t="s">
-        <v>60</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C123" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
+      </c>
+      <c r="E123" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="C124" t="s">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,100 +3173,89 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C126" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C127" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C129" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
-        <v>167</v>
+        <v>313</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>88</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C131" t="s">
-        <v>112</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>88</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,13 +3263,13 @@
         <v>88</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,13 +3277,13 @@
         <v>88</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3240,13 +3291,13 @@
         <v>88</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3254,13 +3305,13 @@
         <v>88</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3271,10 +3322,10 @@
         <v>111</v>
       </c>
       <c r="C137" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3282,13 +3333,13 @@
         <v>88</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="C138" t="s">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3296,187 +3347,289 @@
         <v>88</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="C139" t="s">
-        <v>319</v>
+        <v>113</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="2"/>
+      <c r="A140" t="s">
+        <v>88</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C140" t="s">
+        <v>114</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C141" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C142" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C143" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="C144" t="s">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>88</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C145" t="s">
+        <v>318</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>89</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C145" t="s">
-        <v>105</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>89</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C146" t="s">
-        <v>106</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="2"/>
+      <c r="C147" t="s">
+        <v>101</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C148" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" t="s">
+        <v>104</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C151" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C152" t="s">
+        <v>106</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>321</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C153" t="s">
-        <v>323</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>326</v>
-      </c>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>321</v>
+        <v>90</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>322</v>
+        <v>62</v>
       </c>
       <c r="C154" t="s">
-        <v>324</v>
-      </c>
-      <c r="D154" t="s">
-        <v>327</v>
+        <v>63</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>90</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>90</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C156" t="s">
+        <v>337</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>118</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C158" t="s">
+        <v>120</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>320</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C160" t="s">
         <v>322</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D160" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>328</v>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" t="s">
+        <v>323</v>
+      </c>
+      <c r="D161" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" t="s">
+        <v>324</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/data/matrix_codebook.xlsx
+++ b/data/matrix_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="526" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{420E259E-56A7-4107-BB40-6D69329A9275}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB4F098-F53C-4B9B-A5E5-469716951631}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14985" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="10030" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="348">
   <si>
     <t>BESSI</t>
   </si>
@@ -1074,6 +1074,15 @@
   </si>
   <si>
     <t>Negative achievement emotions</t>
+  </si>
+  <si>
+    <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>educationlevel</t>
+  </si>
+  <si>
+    <t>Education level</t>
   </si>
 </sst>
 </file>
@@ -1401,19 +1410,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}">
-  <dimension ref="A1:AO162"/>
+  <dimension ref="A1:AO163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1481,7 +1490,7 @@
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -1495,7 +1504,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1509,7 +1518,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1523,7 +1532,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1537,7 +1546,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1551,7 +1560,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1565,7 +1574,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -1579,7 +1588,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1593,7 +1602,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -1621,7 +1630,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1635,7 +1644,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1663,7 +1672,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -1677,7 +1686,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -1691,7 +1700,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1705,7 +1714,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -1761,7 +1770,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -1775,7 +1784,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -1789,7 +1798,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -1803,7 +1812,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1817,7 +1826,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1831,7 +1840,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -1845,7 +1854,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -1859,7 +1868,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -1873,7 +1882,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -1887,7 +1896,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1915,7 +1924,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -1929,7 +1938,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -1943,7 +1952,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -1957,7 +1966,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2038,7 +2047,7 @@
       <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2106,12 +2115,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>328</v>
       </c>
@@ -2125,7 +2134,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>328</v>
       </c>
@@ -2139,7 +2148,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>328</v>
       </c>
@@ -2153,7 +2162,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>328</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>328</v>
       </c>
@@ -2181,7 +2190,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>328</v>
       </c>
@@ -2195,7 +2204,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>328</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>328</v>
       </c>
@@ -2223,7 +2232,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>328</v>
       </c>
@@ -2237,7 +2246,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>328</v>
       </c>
@@ -2251,7 +2260,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>328</v>
       </c>
@@ -2265,7 +2274,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>328</v>
       </c>
@@ -2279,7 +2288,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>328</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>328</v>
       </c>
@@ -2307,10 +2316,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -2324,7 +2333,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -2352,7 +2361,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -2366,7 +2375,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -2380,7 +2389,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -2408,7 +2417,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -2450,7 +2459,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -2464,7 +2473,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2478,7 +2487,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -2492,7 +2501,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -2506,7 +2515,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -2534,7 +2543,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2548,7 +2557,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -2562,7 +2571,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2590,13 +2599,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2610,7 +2619,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2624,7 +2633,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2638,7 +2647,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2652,7 +2661,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -2666,7 +2675,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -2680,7 +2689,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -2688,7 +2697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -2716,7 +2725,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>83</v>
       </c>
@@ -2730,7 +2739,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -2744,7 +2753,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -2758,7 +2767,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -2772,7 +2781,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -2786,7 +2795,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>83</v>
       </c>
@@ -2800,7 +2809,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>83</v>
       </c>
@@ -2814,7 +2823,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>83</v>
       </c>
@@ -2828,7 +2837,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -2842,7 +2851,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>83</v>
       </c>
@@ -2856,7 +2865,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>83</v>
       </c>
@@ -2870,7 +2879,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -2884,7 +2893,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -2898,10 +2907,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -2918,7 +2927,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -2932,7 +2941,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -2949,7 +2958,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -2963,7 +2972,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>84</v>
       </c>
@@ -2977,7 +2986,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -2991,7 +3000,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>84</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>84</v>
       </c>
@@ -3019,7 +3028,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>84</v>
       </c>
@@ -3033,7 +3042,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>84</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>84</v>
       </c>
@@ -3061,10 +3070,10 @@
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -3078,7 +3087,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>85</v>
       </c>
@@ -3092,7 +3101,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -3120,7 +3129,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>85</v>
       </c>
@@ -3134,10 +3143,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>86</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>86</v>
       </c>
@@ -3168,24 +3177,24 @@
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>87</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C126" t="s">
-        <v>58</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C125" t="s">
+        <v>346</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>87</v>
       </c>
@@ -3193,13 +3202,13 @@
         <v>57</v>
       </c>
       <c r="C127" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>87</v>
       </c>
@@ -3207,13 +3216,13 @@
         <v>57</v>
       </c>
       <c r="C128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>87</v>
       </c>
@@ -3221,44 +3230,44 @@
         <v>57</v>
       </c>
       <c r="C129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>87</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" t="s">
+        <v>61</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>87</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>313</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>88</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" t="s">
-        <v>107</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -3266,13 +3275,13 @@
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -3280,13 +3289,13 @@
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -3294,13 +3303,13 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -3308,27 +3317,27 @@
         <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>88</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -3336,13 +3345,13 @@
         <v>111</v>
       </c>
       <c r="C138" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -3350,13 +3359,13 @@
         <v>111</v>
       </c>
       <c r="C139" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -3364,13 +3373,13 @@
         <v>111</v>
       </c>
       <c r="C140" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -3378,13 +3387,13 @@
         <v>111</v>
       </c>
       <c r="C141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -3392,13 +3401,13 @@
         <v>111</v>
       </c>
       <c r="C142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -3406,27 +3415,27 @@
         <v>111</v>
       </c>
       <c r="C143" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>88</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>316</v>
+        <v>111</v>
       </c>
       <c r="C144" t="s">
-        <v>315</v>
+        <v>117</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -3434,30 +3443,30 @@
         <v>316</v>
       </c>
       <c r="C145" t="s">
+        <v>315</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>88</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C146" t="s">
         <v>318</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>89</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C147" t="s">
-        <v>101</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>89</v>
       </c>
@@ -3465,13 +3474,13 @@
         <v>100</v>
       </c>
       <c r="C148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>89</v>
       </c>
@@ -3479,13 +3488,13 @@
         <v>100</v>
       </c>
       <c r="C149" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>89</v>
       </c>
@@ -3493,13 +3502,13 @@
         <v>100</v>
       </c>
       <c r="C150" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>89</v>
       </c>
@@ -3507,13 +3516,13 @@
         <v>100</v>
       </c>
       <c r="C151" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>89</v>
       </c>
@@ -3521,90 +3530,90 @@
         <v>100</v>
       </c>
       <c r="C152" t="s">
+        <v>105</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C153" t="s">
         <v>106</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>90</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C154" t="s">
-        <v>63</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>90</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C155" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>90</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C156" t="s">
+        <v>65</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>90</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>337</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="2"/>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B158" s="2"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>118</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>120</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>320</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C160" t="s">
-        <v>322</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -3612,13 +3621,13 @@
         <v>321</v>
       </c>
       <c r="C161" t="s">
-        <v>323</v>
-      </c>
-      <c r="D161" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -3626,9 +3635,23 @@
         <v>321</v>
       </c>
       <c r="C162" t="s">
+        <v>323</v>
+      </c>
+      <c r="D162" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C163" t="s">
         <v>324</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>327</v>
       </c>
     </row>

--- a/data/matrix_codebook.xlsx
+++ b/data/matrix_codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB4F098-F53C-4B9B-A5E5-469716951631}"/>
+  <xr:revisionPtr revIDLastSave="561" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0459B70-F679-4E1C-A384-4FBE13657B43}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="10030" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12460" yWindow="0" windowWidth="6830" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="365">
   <si>
     <t>BESSI</t>
   </si>
@@ -1049,9 +1049,6 @@
     <t>SRL strategies</t>
   </si>
   <si>
-    <t>GROWTH MINDSET</t>
-  </si>
-  <si>
     <t>growthmindset</t>
   </si>
   <si>
@@ -1083,6 +1080,60 @@
   </si>
   <si>
     <t>Education level</t>
+  </si>
+  <si>
+    <t>MINDSET</t>
+  </si>
+  <si>
+    <t>fixedmindset</t>
+  </si>
+  <si>
+    <t>Fixed mindset</t>
+  </si>
+  <si>
+    <t>GRIT</t>
+  </si>
+  <si>
+    <t>grit</t>
+  </si>
+  <si>
+    <t>Grit</t>
+  </si>
+  <si>
+    <t>BRAOD</t>
+  </si>
+  <si>
+    <t>CURIOSITY</t>
+  </si>
+  <si>
+    <t>epistemiccuriosity</t>
+  </si>
+  <si>
+    <t>Epistemic curiosity</t>
+  </si>
+  <si>
+    <t>enterprisingpersonality</t>
+  </si>
+  <si>
+    <t>Enterprising personality</t>
+  </si>
+  <si>
+    <t>INTERNET</t>
+  </si>
+  <si>
+    <t>SOCIAL NETWORK</t>
+  </si>
+  <si>
+    <t>Addictive consequences of social networks</t>
+  </si>
+  <si>
+    <t>socialnetworkaddictiveconsequences</t>
+  </si>
+  <si>
+    <t>Negative Social Comparison</t>
+  </si>
+  <si>
+    <t>socialnetworknegativesocialcomparison</t>
   </si>
 </sst>
 </file>
@@ -1145,6 +1196,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1410,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}">
-  <dimension ref="A1:AO163"/>
+  <dimension ref="A1:AO173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2909,37 +2964,14 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B104" s="2"/>
+      <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>84</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" t="s">
-        <v>69</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E105" t="s">
-        <v>168</v>
-      </c>
+      <c r="B105" s="2"/>
+      <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>84</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" t="s">
-        <v>329</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
@@ -2949,13 +2981,13 @@
         <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>331</v>
+        <v>69</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="E107" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -2963,13 +2995,13 @@
         <v>84</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -2977,13 +3009,16 @@
         <v>84</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>269</v>
+        <v>332</v>
+      </c>
+      <c r="E109" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -2994,10 +3029,10 @@
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -3008,10 +3043,10 @@
         <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>310</v>
+        <v>98</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -3022,10 +3057,10 @@
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>334</v>
+        <v>99</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -3036,10 +3071,10 @@
         <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -3050,10 +3085,10 @@
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -3064,55 +3099,55 @@
         <v>15</v>
       </c>
       <c r="C115" t="s">
+        <v>339</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>340</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>52</v>
+        <v>341</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>271</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>85</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" t="s">
-        <v>121</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>85</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -3120,13 +3155,13 @@
         <v>85</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -3134,93 +3169,93 @@
         <v>85</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>85</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C121" t="s">
-        <v>67</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B122" s="2"/>
+      <c r="C122" t="s">
+        <v>66</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C123" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E123" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>86</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C124" t="s">
-        <v>79</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>86</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>345</v>
+        <v>53</v>
       </c>
       <c r="C125" t="s">
-        <v>346</v>
+        <v>54</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>347</v>
+        <v>276</v>
+      </c>
+      <c r="E125" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B126" s="2"/>
+      <c r="A126" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>344</v>
       </c>
       <c r="C127" t="s">
-        <v>58</v>
+        <v>345</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>87</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C128" t="s">
-        <v>59</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
@@ -3230,10 +3265,10 @@
         <v>57</v>
       </c>
       <c r="C129" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -3244,10 +3279,10 @@
         <v>57</v>
       </c>
       <c r="C130" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3255,73 +3290,63 @@
         <v>87</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>312</v>
+        <v>57</v>
       </c>
       <c r="C131" t="s">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B132" s="2"/>
+      <c r="A132" t="s">
+        <v>87</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C132" t="s">
+        <v>61</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C133" t="s">
-        <v>107</v>
+        <v>357</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>282</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="C134" t="s">
-        <v>108</v>
+        <v>313</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>88</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" t="s">
-        <v>109</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>284</v>
-      </c>
+      <c r="B135" s="2"/>
+      <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>88</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" t="s">
-        <v>110</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
@@ -3331,10 +3356,10 @@
         <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -3342,13 +3367,13 @@
         <v>88</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -3356,13 +3381,13 @@
         <v>88</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -3370,13 +3395,13 @@
         <v>88</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -3384,13 +3409,13 @@
         <v>88</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -3401,10 +3426,10 @@
         <v>111</v>
       </c>
       <c r="C142" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -3415,10 +3440,10 @@
         <v>111</v>
       </c>
       <c r="C143" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -3429,10 +3454,10 @@
         <v>111</v>
       </c>
       <c r="C144" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -3440,13 +3465,13 @@
         <v>88</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>316</v>
+        <v>111</v>
       </c>
       <c r="C145" t="s">
-        <v>315</v>
+        <v>114</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -3454,73 +3479,73 @@
         <v>88</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>316</v>
+        <v>111</v>
       </c>
       <c r="C146" t="s">
-        <v>318</v>
+        <v>115</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B147" s="2"/>
+      <c r="A147" t="s">
+        <v>88</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147" t="s">
+        <v>116</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C148" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="C149" t="s">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="C150" t="s">
-        <v>103</v>
+        <v>318</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>89</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C151" t="s">
-        <v>104</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
@@ -3530,10 +3555,10 @@
         <v>100</v>
       </c>
       <c r="C152" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -3544,115 +3569,241 @@
         <v>100</v>
       </c>
       <c r="C153" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B154" s="2"/>
+      <c r="A154" t="s">
+        <v>89</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C154" t="s">
+        <v>103</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C155" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C156" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>336</v>
+        <v>100</v>
       </c>
       <c r="C157" t="s">
-        <v>337</v>
+        <v>106</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B158" s="2"/>
-      <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C159" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>90</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C160" t="s">
+        <v>65</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="C161" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="C162" t="s">
-        <v>323</v>
-      </c>
-      <c r="D162" t="s">
-        <v>326</v>
+        <v>348</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>90</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C163" t="s">
+        <v>351</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>353</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C164" t="s">
+        <v>355</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B165" s="2"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>118</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C166" t="s">
+        <v>120</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>320</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C168" t="s">
+        <v>322</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>320</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C169" t="s">
+        <v>323</v>
+      </c>
+      <c r="D169" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>320</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C170" t="s">
         <v>324</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>359</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C172" t="s">
+        <v>362</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>359</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C173" t="s">
+        <v>364</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/data/matrix_codebook.xlsx
+++ b/data/matrix_codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="561" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0459B70-F679-4E1C-A384-4FBE13657B43}"/>
+  <xr:revisionPtr revIDLastSave="562" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F5DD55B-DC85-4957-92E2-1E991AFFFD13}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="0" windowWidth="6830" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="364">
   <si>
     <t>BESSI</t>
   </si>
@@ -1098,9 +1098,6 @@
   </si>
   <si>
     <t>Grit</t>
-  </si>
-  <si>
-    <t>BRAOD</t>
   </si>
   <si>
     <t>CURIOSITY</t>
@@ -1196,10 +1193,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1467,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}">
   <dimension ref="A1:AO173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3321,10 +3314,10 @@
         <v>57</v>
       </c>
       <c r="C133" t="s">
+        <v>356</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -3706,16 +3699,16 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>90</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="C164" t="s">
         <v>354</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -3780,30 +3773,30 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>358</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="C172" t="s">
+        <v>361</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C172" t="s">
-        <v>362</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>358</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="C173" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/data/matrix_codebook.xlsx
+++ b/data/matrix_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F5DD55B-DC85-4957-92E2-1E991AFFFD13}"/>
+  <xr:revisionPtr revIDLastSave="616" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB10791-0FE8-41ED-ACC3-263FA7781E7A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="389">
   <si>
     <t>BESSI</t>
   </si>
@@ -1131,6 +1131,81 @@
   </si>
   <si>
     <t>socialnetworknegativesocialcomparison</t>
+  </si>
+  <si>
+    <t>EDUCATORS_FACTORS</t>
+  </si>
+  <si>
+    <t>teacherautonomysupport</t>
+  </si>
+  <si>
+    <t>Teacher autonomy support</t>
+  </si>
+  <si>
+    <t>parentautonomysupport</t>
+  </si>
+  <si>
+    <t>Parent autonomy support</t>
+  </si>
+  <si>
+    <t>PSEC</t>
+  </si>
+  <si>
+    <t>perceivedAssertiveness</t>
+  </si>
+  <si>
+    <t>perceivedTolerance</t>
+  </si>
+  <si>
+    <t>perceivedSocialregulation</t>
+  </si>
+  <si>
+    <t>perceivedEmotionregulation</t>
+  </si>
+  <si>
+    <t>perceivedEmotionalawareness</t>
+  </si>
+  <si>
+    <t>psec_total</t>
+  </si>
+  <si>
+    <t>PSEC Assertiveness</t>
+  </si>
+  <si>
+    <t>PSEC Tolerance</t>
+  </si>
+  <si>
+    <t>PSEC Social regulation</t>
+  </si>
+  <si>
+    <t>PSEC Emotion regulation</t>
+  </si>
+  <si>
+    <t>PSEC Emotional awareness</t>
+  </si>
+  <si>
+    <t>PSEC Total</t>
+  </si>
+  <si>
+    <t>cognitivereappraisalskill</t>
+  </si>
+  <si>
+    <t>emotionalreflectionskill</t>
+  </si>
+  <si>
+    <t>Other skills</t>
+  </si>
+  <si>
+    <t>Cognitive Reappraisal Skill</t>
+  </si>
+  <si>
+    <t>Emotional Reflection Skill</t>
+  </si>
+  <si>
+    <t>academicsatisfaction</t>
+  </si>
+  <si>
+    <t>Academic Satisfaction</t>
   </si>
 </sst>
 </file>
@@ -1458,19 +1533,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}">
-  <dimension ref="A1:AO173"/>
+  <dimension ref="A1:AO185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="35.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1487,7 +1562,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1538,7 +1613,7 @@
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -1552,7 +1627,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1566,7 +1641,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1580,7 +1655,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1594,7 +1669,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1608,7 +1683,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1622,7 +1697,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -1636,7 +1711,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1650,7 +1725,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1664,7 +1739,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -1678,7 +1753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1692,7 +1767,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1706,7 +1781,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1720,7 +1795,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -1734,7 +1809,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -1748,7 +1823,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1762,7 +1837,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1776,7 +1851,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1790,7 +1865,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -1804,7 +1879,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -1818,7 +1893,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -1832,7 +1907,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -1846,7 +1921,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -1860,7 +1935,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1874,7 +1949,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1888,7 +1963,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -1902,7 +1977,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -1916,7 +1991,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -1930,7 +2005,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -1944,7 +2019,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -1958,7 +2033,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1972,7 +2047,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -1986,7 +2061,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -2000,7 +2075,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2014,7 +2089,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2028,7 +2103,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2042,7 +2117,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2095,7 +2170,7 @@
       <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2112,7 +2187,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2129,7 +2204,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2146,7 +2221,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2163,12 +2238,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>328</v>
       </c>
@@ -2182,7 +2257,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>328</v>
       </c>
@@ -2196,7 +2271,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>328</v>
       </c>
@@ -2210,7 +2285,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>328</v>
       </c>
@@ -2224,7 +2299,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>328</v>
       </c>
@@ -2238,7 +2313,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>328</v>
       </c>
@@ -2252,7 +2327,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>328</v>
       </c>
@@ -2266,7 +2341,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>328</v>
       </c>
@@ -2280,7 +2355,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>328</v>
       </c>
@@ -2294,7 +2369,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>328</v>
       </c>
@@ -2308,7 +2383,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>328</v>
       </c>
@@ -2322,7 +2397,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>328</v>
       </c>
@@ -2336,7 +2411,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>328</v>
       </c>
@@ -2350,7 +2425,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>328</v>
       </c>
@@ -2364,206 +2439,196 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C60" t="s">
+        <v>370</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C61" t="s">
+        <v>371</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>328</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C62" t="s">
+        <v>372</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>328</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C63" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>328</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C65" t="s">
+        <v>375</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>328</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C66" t="s">
+        <v>382</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>328</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C67" t="s">
+        <v>383</v>
+      </c>
+      <c r="D67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C70" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="2" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="2" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C72" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C73" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C74" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>126</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>127</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>128</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -2571,13 +2636,13 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -2585,13 +2650,13 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2599,13 +2664,13 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -2613,13 +2678,13 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2627,13 +2692,13 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2641,237 +2706,237 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
         <v>144</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C91" t="s">
         <v>304</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="2" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C92" t="s">
         <v>305</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C93" t="s">
         <v>306</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C94" t="s">
         <v>307</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="2" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C95" t="s">
         <v>308</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" s="2" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C96" t="s">
         <v>309</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="2" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C90" t="s">
-        <v>147</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C91" t="s">
-        <v>148</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92" t="s">
-        <v>154</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" t="s">
-        <v>150</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" t="s">
-        <v>151</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" t="s">
-        <v>152</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" t="s">
-        <v>155</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>83</v>
       </c>
@@ -2879,923 +2944,1091 @@
         <v>145</v>
       </c>
       <c r="C98" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" t="s">
+        <v>148</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" t="s">
+        <v>149</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" t="s">
+        <v>155</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="s">
         <v>153</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>83</v>
-      </c>
-      <c r="B99" s="2" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C108" t="s">
         <v>157</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" s="2" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C109" t="s">
         <v>158</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" s="2" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C110" t="s">
         <v>159</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" s="2" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C111" t="s">
         <v>160</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>83</v>
-      </c>
-      <c r="B103" s="2" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C112" t="s">
         <v>161</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B104" s="2"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B105" s="2"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>84</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" t="s">
-        <v>69</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E107" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>84</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" t="s">
-        <v>329</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>84</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" t="s">
-        <v>331</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E109" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>84</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" t="s">
-        <v>97</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>84</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" t="s">
-        <v>98</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>84</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" t="s">
-        <v>99</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>84</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" t="s">
-        <v>310</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>84</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" t="s">
-        <v>334</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>84</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" t="s">
-        <v>339</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="2"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="2"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>84</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>340</v>
+        <v>69</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+      <c r="E116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>84</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>329</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>331</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E118" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C119" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>99</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>310</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>334</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>339</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>340</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>84</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
         <v>341</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>387</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>84</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C128" t="s">
+        <v>365</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>84</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C129" t="s">
+        <v>367</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>85</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C131" t="s">
         <v>52</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>85</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C132" t="s">
         <v>121</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>85</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C133" t="s">
         <v>122</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>85</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C134" t="s">
         <v>66</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>85</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C135" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>86</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C137" t="s">
         <v>54</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E137" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>86</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B138" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C138" t="s">
         <v>79</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>86</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C139" t="s">
         <v>345</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>87</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C141" t="s">
         <v>58</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>87</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C142" t="s">
         <v>59</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>87</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C143" t="s">
         <v>60</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>87</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C144" t="s">
         <v>61</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>87</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C145" t="s">
         <v>356</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>87</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C146" t="s">
         <v>313</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B135" s="2"/>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>88</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C137" t="s">
-        <v>107</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>88</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" t="s">
-        <v>108</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>88</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" t="s">
-        <v>109</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>88</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" t="s">
-        <v>110</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>88</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" t="s">
-        <v>167</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>88</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C142" t="s">
-        <v>112</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>88</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C143" t="s">
-        <v>80</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>88</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C144" t="s">
-        <v>113</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>88</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C145" t="s">
-        <v>114</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>88</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C146" t="s">
-        <v>115</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>88</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C147" t="s">
-        <v>116</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>88</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C148" t="s">
-        <v>117</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B147" s="2"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>88</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>315</v>
+        <v>107</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>88</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>108</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>88</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
+        <v>109</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>88</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>110</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>88</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" t="s">
+        <v>167</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>88</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C154" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>88</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C155" t="s">
+        <v>80</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>88</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C156" t="s">
+        <v>113</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>88</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C157" t="s">
+        <v>114</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>88</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C158" t="s">
+        <v>115</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>88</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C159" t="s">
+        <v>116</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>88</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C160" t="s">
+        <v>117</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>88</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C161" t="s">
+        <v>315</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>88</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C162" t="s">
         <v>318</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>89</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C164" t="s">
         <v>101</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>89</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C165" t="s">
         <v>102</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>89</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C166" t="s">
         <v>103</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>89</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C167" t="s">
         <v>104</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>89</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C168" t="s">
         <v>105</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>89</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C169" t="s">
         <v>106</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B158" s="2"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>90</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C171" t="s">
         <v>63</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>90</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C172" t="s">
         <v>65</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>90</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C173" t="s">
         <v>336</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>90</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C174" t="s">
         <v>348</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>90</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C175" t="s">
         <v>351</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>90</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C176" t="s">
         <v>354</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B165" s="2"/>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B177" s="2"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>118</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C178" t="s">
         <v>120</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>320</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C180" t="s">
         <v>322</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>320</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C181" t="s">
         <v>323</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D181" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>320</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C182" t="s">
         <v>324</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>358</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B184" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C184" t="s">
         <v>361</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>358</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C185" t="s">
         <v>363</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>362</v>
       </c>
     </row>

--- a/data/matrix_codebook.xlsx
+++ b/data/matrix_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB10791-0FE8-41ED-ACC3-263FA7781E7A}"/>
+  <xr:revisionPtr revIDLastSave="626" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B30F5CE-4DAE-4927-A338-B188B5FECB5F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="391">
   <si>
     <t>BESSI</t>
   </si>
@@ -1206,6 +1206,12 @@
   </si>
   <si>
     <t>Academic Satisfaction</t>
+  </si>
+  <si>
+    <t>servicelearning</t>
+  </si>
+  <si>
+    <t>Service Learning</t>
   </si>
 </sst>
 </file>
@@ -1533,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}">
-  <dimension ref="A1:AO185"/>
+  <dimension ref="A1:AO186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3736,10 +3742,10 @@
         <v>111</v>
       </c>
       <c r="C160" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>293</v>
+        <v>390</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3747,13 +3753,13 @@
         <v>88</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>316</v>
+        <v>111</v>
       </c>
       <c r="C161" t="s">
-        <v>315</v>
+        <v>117</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3764,28 +3770,28 @@
         <v>316</v>
       </c>
       <c r="C162" t="s">
+        <v>315</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>88</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" t="s">
         <v>318</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B163" s="2"/>
-    </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>89</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C164" t="s">
-        <v>101</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -3795,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C165" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3809,10 +3815,10 @@
         <v>100</v>
       </c>
       <c r="C166" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3823,10 +3829,10 @@
         <v>100</v>
       </c>
       <c r="C167" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3837,10 +3843,10 @@
         <v>100</v>
       </c>
       <c r="C168" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3851,41 +3857,41 @@
         <v>100</v>
       </c>
       <c r="C169" t="s">
+        <v>105</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>89</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C170" t="s">
         <v>106</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B170" s="2"/>
-    </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>90</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C171" t="s">
-        <v>63</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>90</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C172" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3893,13 +3899,13 @@
         <v>90</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>347</v>
+        <v>64</v>
       </c>
       <c r="C173" t="s">
-        <v>336</v>
+        <v>65</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3910,10 +3916,10 @@
         <v>347</v>
       </c>
       <c r="C174" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3921,13 +3927,13 @@
         <v>90</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C175" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3935,45 +3941,45 @@
         <v>90</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" t="s">
+        <v>351</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>354</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B177" s="2"/>
-      <c r="D177" s="1"/>
-    </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="B178" s="2"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>118</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>120</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>320</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C180" t="s">
-        <v>322</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3984,10 +3990,10 @@
         <v>321</v>
       </c>
       <c r="C181" t="s">
-        <v>323</v>
-      </c>
-      <c r="D181" t="s">
-        <v>326</v>
+        <v>322</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3998,24 +4004,24 @@
         <v>321</v>
       </c>
       <c r="C182" t="s">
+        <v>323</v>
+      </c>
+      <c r="D182" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>320</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C183" t="s">
         <v>324</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>358</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C184" t="s">
-        <v>361</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -4026,9 +4032,23 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
+        <v>361</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>358</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C186" t="s">
         <v>363</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>362</v>
       </c>
     </row>

--- a/data/matrix_codebook.xlsx
+++ b/data/matrix_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="626" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B30F5CE-4DAE-4927-A338-B188B5FECB5F}"/>
+  <xr:revisionPtr revIDLastSave="627" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED5E2931-7813-4955-B178-FB33B5BAFE3F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="389">
   <si>
     <t>BESSI</t>
   </si>
@@ -1206,12 +1206,6 @@
   </si>
   <si>
     <t>Academic Satisfaction</t>
-  </si>
-  <si>
-    <t>servicelearning</t>
-  </si>
-  <si>
-    <t>Service Learning</t>
   </si>
 </sst>
 </file>
@@ -1539,19 +1533,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}">
-  <dimension ref="A1:AO186"/>
+  <dimension ref="A1:AO185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160:XFD160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1619,7 +1613,7 @@
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -1633,7 +1627,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1647,7 +1641,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1661,7 +1655,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1675,7 +1669,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1689,7 +1683,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1703,7 +1697,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -1717,7 +1711,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1731,7 +1725,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1745,7 +1739,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -1759,7 +1753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1773,7 +1767,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1787,7 +1781,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1801,7 +1795,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -1815,7 +1809,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -1829,7 +1823,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -1843,7 +1837,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1857,7 +1851,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1871,7 +1865,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -1885,7 +1879,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -1913,7 +1907,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -1927,7 +1921,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -1941,7 +1935,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1955,7 +1949,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1969,7 +1963,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -1983,7 +1977,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -1997,7 +1991,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -2011,7 +2005,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2025,7 +2019,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2039,7 +2033,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -2053,7 +2047,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2067,7 +2061,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -2081,7 +2075,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2095,7 +2089,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2109,7 +2103,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2123,7 +2117,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2176,7 +2170,7 @@
       <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -2193,7 +2187,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2210,7 +2204,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2227,7 +2221,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2244,12 +2238,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>328</v>
       </c>
@@ -2263,7 +2257,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>328</v>
       </c>
@@ -2277,7 +2271,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>328</v>
       </c>
@@ -2291,7 +2285,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>328</v>
       </c>
@@ -2305,7 +2299,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>328</v>
       </c>
@@ -2319,7 +2313,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>328</v>
       </c>
@@ -2333,7 +2327,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>328</v>
       </c>
@@ -2347,7 +2341,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>328</v>
       </c>
@@ -2361,7 +2355,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>328</v>
       </c>
@@ -2375,7 +2369,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>328</v>
       </c>
@@ -2389,7 +2383,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>328</v>
       </c>
@@ -2403,7 +2397,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>328</v>
       </c>
@@ -2417,7 +2411,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>328</v>
       </c>
@@ -2431,7 +2425,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>328</v>
       </c>
@@ -2445,7 +2439,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>328</v>
       </c>
@@ -2459,7 +2453,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>328</v>
       </c>
@@ -2473,7 +2467,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>328</v>
       </c>
@@ -2487,7 +2481,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>328</v>
       </c>
@@ -2501,7 +2495,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>328</v>
       </c>
@@ -2515,7 +2509,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>328</v>
       </c>
@@ -2529,7 +2523,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>328</v>
       </c>
@@ -2543,7 +2537,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>328</v>
       </c>
@@ -2557,14 +2551,14 @@
         <v>386</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -2578,7 +2572,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -2592,7 +2586,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2606,7 +2600,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -2620,7 +2614,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -2634,7 +2628,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -2648,7 +2642,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -2662,7 +2656,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2676,7 +2670,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -2690,7 +2684,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2704,7 +2698,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2718,7 +2712,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2732,7 +2726,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2746,7 +2740,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2760,7 +2754,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2774,7 +2768,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2788,7 +2782,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -2802,7 +2796,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -2816,7 +2810,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -2830,7 +2824,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -2844,13 +2838,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>83</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>83</v>
       </c>
@@ -2864,7 +2858,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -2878,7 +2872,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -2892,7 +2886,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -2906,7 +2900,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -2920,7 +2914,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>83</v>
       </c>
@@ -2934,7 +2928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>83</v>
       </c>
@@ -2942,7 +2936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>83</v>
       </c>
@@ -2956,7 +2950,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -2970,7 +2964,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>83</v>
       </c>
@@ -2984,7 +2978,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>83</v>
       </c>
@@ -2998,7 +2992,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -3012,7 +3006,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -3026,7 +3020,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -3040,7 +3034,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -3054,7 +3048,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -3068,7 +3062,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -3082,7 +3076,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -3096,7 +3090,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -3110,7 +3104,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -3124,7 +3118,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -3138,7 +3132,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -3152,18 +3146,18 @@
         <v>266</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B113" s="2"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>84</v>
       </c>
@@ -3180,7 +3174,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>84</v>
       </c>
@@ -3194,7 +3188,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>84</v>
       </c>
@@ -3211,7 +3205,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>84</v>
       </c>
@@ -3225,7 +3219,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>84</v>
       </c>
@@ -3239,7 +3233,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>84</v>
       </c>
@@ -3253,7 +3247,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>84</v>
       </c>
@@ -3267,7 +3261,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>84</v>
       </c>
@@ -3281,7 +3275,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>84</v>
       </c>
@@ -3295,7 +3289,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>84</v>
       </c>
@@ -3309,7 +3303,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>84</v>
       </c>
@@ -3323,7 +3317,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>84</v>
       </c>
@@ -3337,7 +3331,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>84</v>
       </c>
@@ -3351,7 +3345,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -3365,10 +3359,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -3382,7 +3376,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>85</v>
       </c>
@@ -3396,7 +3390,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>85</v>
       </c>
@@ -3410,7 +3404,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>85</v>
       </c>
@@ -3424,7 +3418,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>85</v>
       </c>
@@ -3438,10 +3432,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>86</v>
       </c>
@@ -3458,7 +3452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>86</v>
       </c>
@@ -3472,7 +3466,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>86</v>
       </c>
@@ -3486,10 +3480,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>87</v>
       </c>
@@ -3503,7 +3497,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -3517,7 +3511,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>87</v>
       </c>
@@ -3531,7 +3525,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>87</v>
       </c>
@@ -3545,7 +3539,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>87</v>
       </c>
@@ -3559,7 +3553,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>87</v>
       </c>
@@ -3573,14 +3567,14 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B147" s="2"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -3594,7 +3588,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -3608,7 +3602,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -3622,7 +3616,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -3636,7 +3630,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -3650,7 +3644,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -3664,7 +3658,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -3678,7 +3672,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -3692,7 +3686,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -3706,7 +3700,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>88</v>
       </c>
@@ -3720,7 +3714,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>88</v>
       </c>
@@ -3734,7 +3728,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>88</v>
       </c>
@@ -3742,27 +3736,27 @@
         <v>111</v>
       </c>
       <c r="C160" t="s">
-        <v>389</v>
+        <v>117</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>88</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="C161" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>88</v>
       </c>
@@ -3770,30 +3764,30 @@
         <v>316</v>
       </c>
       <c r="C162" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>88</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C163" t="s">
-        <v>318</v>
-      </c>
-      <c r="D163" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B164" s="2"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>89</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C164" t="s">
+        <v>101</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -3801,13 +3795,13 @@
         <v>100</v>
       </c>
       <c r="C165" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -3815,13 +3809,13 @@
         <v>100</v>
       </c>
       <c r="C166" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -3829,13 +3823,13 @@
         <v>100</v>
       </c>
       <c r="C167" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -3843,13 +3837,13 @@
         <v>100</v>
       </c>
       <c r="C168" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -3857,58 +3851,58 @@
         <v>100</v>
       </c>
       <c r="C169" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>89</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C170" t="s">
-        <v>106</v>
-      </c>
-      <c r="D170" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B171" s="2"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>90</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>90</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C172" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>90</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="C173" t="s">
-        <v>65</v>
+        <v>336</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>90</v>
       </c>
@@ -3916,73 +3910,73 @@
         <v>347</v>
       </c>
       <c r="C174" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>90</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C175" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>90</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C176" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>90</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C177" t="s">
-        <v>354</v>
-      </c>
-      <c r="D177" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B178" s="2"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B177" s="2"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>118</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C178" t="s">
         <v>120</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>320</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C180" t="s">
+        <v>322</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>320</v>
       </c>
@@ -3990,13 +3984,13 @@
         <v>321</v>
       </c>
       <c r="C181" t="s">
-        <v>322</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="D181" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>320</v>
       </c>
@@ -4004,27 +3998,27 @@
         <v>321</v>
       </c>
       <c r="C182" t="s">
-        <v>323</v>
-      </c>
-      <c r="D182" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>320</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C183" t="s">
         <v>324</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>358</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C184" t="s">
+        <v>361</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>358</v>
       </c>
@@ -4032,23 +4026,9 @@
         <v>359</v>
       </c>
       <c r="C185" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>358</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C186" t="s">
-        <v>363</v>
-      </c>
-      <c r="D186" s="1" t="s">
         <v>362</v>
       </c>
     </row>
